--- a/recipes/aphid_diet.xlsx
+++ b/recipes/aphid_diet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/recipes_protocols/recipes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/recipes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89904B97-BFC4-F744-9640-6F6B6FD7B7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084A407-5D52-704B-B512-69F8A9A8E614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:S1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:I45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
